--- a/pyproject/cfg_excel/parameter_common.xlsx
+++ b/pyproject/cfg_excel/parameter_common.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
@@ -329,23 +329,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +360,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,24 +390,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,37 +414,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +474,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,79 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,10 +659,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,133 +671,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12"/>

--- a/pyproject/cfg_excel/parameter_common.xlsx
+++ b/pyproject/cfg_excel/parameter_common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="servey_common" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>ID</t>
   </si>
@@ -168,16 +168,19 @@
   <si>
     <t>触发事件超时时间(秒)</t>
   </si>
+  <si>
+    <t>开房需要砖石数量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
@@ -209,7 +212,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,25 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,14 +257,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,11 +270,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,15 +316,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,21 +349,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,31 +363,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,151 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +554,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,37 +630,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,30 +649,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -659,10 +662,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +674,16 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,16 +692,16 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,97 +710,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1218,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12"/>
@@ -1269,6 +1272,17 @@
       </c>
       <c r="C3" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1"/>

--- a/pyproject/cfg_excel/parameter_common.xlsx
+++ b/pyproject/cfg_excel/parameter_common.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="servey_common" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,6 +35,7 @@
             <sz val="9"/>
             <rFont val="Microsoft YaHei"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>小时</t>
         </r>
@@ -62,6 +63,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>弃牌超时</t>
     </r>
@@ -81,6 +83,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>秒</t>
     </r>
@@ -102,6 +105,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>触发事件超时时间</t>
     </r>
@@ -121,6 +125,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>秒</t>
     </r>
@@ -162,7 +167,7 @@
     <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,6 +202,13 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -210,12 +222,14 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,15 +291,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,19 +403,19 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.21457489878542"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -419,23 +437,23 @@
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="C2" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -445,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +492,7 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -527,7 +545,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="0"/>
@@ -563,11 +581,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="0"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="0"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="0"/>
@@ -615,23 +633,23 @@
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
-      <c r="C42" s="9"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0"/>
-      <c r="C43" s="9"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0"/>
-      <c r="C44" s="9"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>
@@ -711,7 +729,7 @@
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
@@ -719,7 +737,7 @@
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2"/>
-      <c r="C66" s="10"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -753,6 +771,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -776,6 +797,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
